--- a/relatorios/repasses_liberados/dentistas/08028917488/2023-08-25_relatorio_repasses_08028917488.xlsx
+++ b/relatorios/repasses_liberados/dentistas/08028917488/2023-08-25_relatorio_repasses_08028917488.xlsx
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -15008,10 +15008,10 @@
         <v>1</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N316">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -16504,10 +16504,10 @@
         <v>1</v>
       </c>
       <c r="M350">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N350">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -17164,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -17472,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N405">
         <v>0</v>
@@ -19056,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19452,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N417">
         <v>0</v>
@@ -19496,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -21696,7 +21696,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -21740,7 +21740,7 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N469">
         <v>0</v>
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -22884,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N496">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/08028917488/2023-08-25_relatorio_repasses_08028917488.xlsx
+++ b/relatorios/repasses_liberados/dentistas/08028917488/2023-08-25_relatorio_repasses_08028917488.xlsx
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N10">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N15">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N19">
-        <v>8.007</v>
+        <v>13.345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1984,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N20">
-        <v>8.007</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N25">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N30">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N61">
-        <v>9.797999999999998</v>
+        <v>13.064</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3832,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>9.797999999999998</v>
+        <v>13.064</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4624,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N80">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4800,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N84">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4888,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N87">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5020,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5328,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N96">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N97">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5724,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N105">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9904,10 +9904,10 @@
         <v>1</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
-        <v>29.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12588,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -13116,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -13380,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N279">
         <v>0</v>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -13732,7 +13732,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -14216,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N303">
         <v>0</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -15008,10 +15008,10 @@
         <v>1</v>
       </c>
       <c r="M316">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N319">
         <v>0</v>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -15316,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N323">
         <v>0</v>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N324">
         <v>0</v>
@@ -15404,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N325">
         <v>0</v>
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15492,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -16152,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -16504,10 +16504,10 @@
         <v>1</v>
       </c>
       <c r="M350">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
-        <v>65</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -16548,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
       <c r="M358">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N358">
         <v>0</v>
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -17120,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N406">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N407">
         <v>0</v>
@@ -19056,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19496,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -19540,7 +19540,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N429">
         <v>0</v>
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20288,7 +20288,7 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N436">
         <v>0</v>
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -21036,7 +21036,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21564,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N465">
         <v>0</v>
@@ -21696,7 +21696,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -21960,7 +21960,7 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N474">
         <v>0</v>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N475">
         <v>0</v>
@@ -22048,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N477">
         <v>0</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -22356,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -22884,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23412,7 +23412,7 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N507">
         <v>0</v>
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N508">
         <v>0</v>
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N514">
         <v>0</v>
